--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-Cd19.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-Cd19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H2">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,33 +555,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01144633333333333</v>
+        <v>0.01688366666666667</v>
       </c>
       <c r="N2">
-        <v>0.034339</v>
+        <v>0.050651</v>
       </c>
       <c r="O2">
-        <v>0.4040357689139899</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.4040357689139898</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.4686453026826667</v>
+        <v>0.009386204344666669</v>
       </c>
       <c r="R2">
-        <v>4.217807724144</v>
+        <v>0.084475839102</v>
       </c>
       <c r="S2">
-        <v>0.104362439344225</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="T2">
-        <v>0.104362439344225</v>
+        <v>0.005745252779589094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.942832</v>
+        <v>79.68771233333334</v>
       </c>
       <c r="H3">
-        <v>122.828496</v>
+        <v>239.063137</v>
       </c>
       <c r="I3">
-        <v>0.2583000005785166</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J3">
-        <v>0.2583000005785166</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,27 +623,27 @@
         <v>0.050651</v>
       </c>
       <c r="O3">
-        <v>0.5959642310860102</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.59596423108601</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.6912651278773333</v>
+        <v>1.345420772465223</v>
       </c>
       <c r="R3">
-        <v>6.221386150896</v>
+        <v>12.108786952187</v>
       </c>
       <c r="S3">
-        <v>0.1539375612342916</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="T3">
-        <v>0.1539375612342916</v>
+        <v>0.823525905561055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>79.68771233333334</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H4">
-        <v>239.063137</v>
+        <v>1.034099</v>
       </c>
       <c r="I4">
-        <v>0.5027335710876245</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J4">
-        <v>0.5027335710876245</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01144633333333333</v>
+        <v>0.01688366666666667</v>
       </c>
       <c r="N4">
-        <v>0.034339</v>
+        <v>0.050651</v>
       </c>
       <c r="O4">
-        <v>0.4040357689139899</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.4040357689139898</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.9121321179381112</v>
+        <v>0.005819794272111111</v>
       </c>
       <c r="R4">
-        <v>8.209189061443</v>
+        <v>0.052378148449</v>
       </c>
       <c r="S4">
-        <v>0.2031223449532644</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="T4">
-        <v>0.2031223449532643</v>
+        <v>0.003562269474506148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.68771233333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H5">
-        <v>239.063137</v>
+        <v>48.52715</v>
       </c>
       <c r="I5">
-        <v>0.5027335710876245</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J5">
-        <v>0.5027335710876245</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,270 +747,22 @@
         <v>0.050651</v>
       </c>
       <c r="O5">
-        <v>0.5959642310860102</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.59596423108601</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.345420772465223</v>
+        <v>0.2731054082944445</v>
       </c>
       <c r="R5">
-        <v>12.108786952187</v>
+        <v>2.45794867465</v>
       </c>
       <c r="S5">
-        <v>0.2996112261343601</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="T5">
-        <v>0.2996112261343601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.3464216666666666</v>
-      </c>
-      <c r="H6">
-        <v>1.039265</v>
-      </c>
-      <c r="I6">
-        <v>0.002185503843515531</v>
-      </c>
-      <c r="J6">
-        <v>0.002185503843515531</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.01144633333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.034339</v>
-      </c>
-      <c r="O6">
-        <v>0.4040357689139899</v>
-      </c>
-      <c r="P6">
-        <v>0.4040357689139898</v>
-      </c>
-      <c r="Q6">
-        <v>0.003965257870555555</v>
-      </c>
-      <c r="R6">
-        <v>0.03568732083499999</v>
-      </c>
-      <c r="S6">
-        <v>0.000883021725879278</v>
-      </c>
-      <c r="T6">
-        <v>0.0008830217258792779</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3464216666666666</v>
-      </c>
-      <c r="H7">
-        <v>1.039265</v>
-      </c>
-      <c r="I7">
-        <v>0.002185503843515531</v>
-      </c>
-      <c r="J7">
-        <v>0.002185503843515531</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01688366666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.050651</v>
-      </c>
-      <c r="O7">
-        <v>0.5959642310860102</v>
-      </c>
-      <c r="P7">
-        <v>0.59596423108601</v>
-      </c>
-      <c r="Q7">
-        <v>0.005848867946111111</v>
-      </c>
-      <c r="R7">
-        <v>0.052639811515</v>
-      </c>
-      <c r="S7">
-        <v>0.001302482117636254</v>
-      </c>
-      <c r="T7">
-        <v>0.001302482117636253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>37.53186833333334</v>
-      </c>
-      <c r="H8">
-        <v>112.595605</v>
-      </c>
-      <c r="I8">
-        <v>0.2367809244903433</v>
-      </c>
-      <c r="J8">
-        <v>0.2367809244903433</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.01144633333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.034339</v>
-      </c>
-      <c r="O8">
-        <v>0.4040357689139899</v>
-      </c>
-      <c r="P8">
-        <v>0.4040357689139898</v>
-      </c>
-      <c r="Q8">
-        <v>0.4296022755661112</v>
-      </c>
-      <c r="R8">
-        <v>3.866420480095</v>
-      </c>
-      <c r="S8">
-        <v>0.09566796289062124</v>
-      </c>
-      <c r="T8">
-        <v>0.09566796289062121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>37.53186833333334</v>
-      </c>
-      <c r="H9">
-        <v>112.595605</v>
-      </c>
-      <c r="I9">
-        <v>0.2367809244903433</v>
-      </c>
-      <c r="J9">
-        <v>0.2367809244903433</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01688366666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.050651</v>
-      </c>
-      <c r="O9">
-        <v>0.5959642310860102</v>
-      </c>
-      <c r="P9">
-        <v>0.59596423108601</v>
-      </c>
-      <c r="Q9">
-        <v>0.6336755543172223</v>
-      </c>
-      <c r="R9">
-        <v>5.703079988855</v>
-      </c>
-      <c r="S9">
-        <v>0.1411129615997221</v>
-      </c>
-      <c r="T9">
-        <v>0.141112961599722</v>
+        <v>0.1671665721848498</v>
       </c>
     </row>
   </sheetData>
